--- a/Results/Pathprint/Consensus_fingerprint/Pathways_CF.xlsx
+++ b/Results/Pathprint/Consensus_fingerprint/Pathways_CF.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-4740" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-27420" yWindow="-3240" windowWidth="25040" windowHeight="14160" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="OLD2" sheetId="3" r:id="rId1"/>
     <sheet name="OLD3" sheetId="4" r:id="rId2"/>
     <sheet name="OLD1" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
-    <sheet name="W_CBFTLD_WRONG" sheetId="6" r:id="rId5"/>
-    <sheet name="W_CBFTLD" sheetId="8" r:id="rId6"/>
-    <sheet name="WO_CBFTLD" sheetId="7" r:id="rId7"/>
+    <sheet name="W_CBFTLD_WRONG" sheetId="6" r:id="rId4"/>
+    <sheet name="W_CBFTLD" sheetId="8" r:id="rId5"/>
+    <sheet name="WO_CBFTLD" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="357">
   <si>
     <t>{BRCA1,28} (Static Module)</t>
   </si>
@@ -970,6 +971,132 @@
   </si>
   <si>
     <t>Glycolysis  / Gluconeogenesis (KEGG)</t>
+  </si>
+  <si>
+    <t>Netpath)</t>
+  </si>
+  <si>
+    <t>Wikipathways)</t>
+  </si>
+  <si>
+    <t>Static Module)</t>
+  </si>
+  <si>
+    <t>Reactome)</t>
+  </si>
+  <si>
+    <t>KEGG)</t>
+  </si>
+  <si>
+    <t>Mitochondrial_LC-Fatty_Acid_Beta-Oxidation</t>
+  </si>
+  <si>
+    <t>Vitamin_B12_Metabolism</t>
+  </si>
+  <si>
+    <t>Vitamin_D_synthesis</t>
+  </si>
+  <si>
+    <t>Fatty_Acid_Biosynthesis</t>
+  </si>
+  <si>
+    <t>Muscle_contraction</t>
+  </si>
+  <si>
+    <t>Steroid_Biosynthesis</t>
+  </si>
+  <si>
+    <t>Glutathione_metabolism</t>
+  </si>
+  <si>
+    <t>Hedgehog_Signaling_Pathway</t>
+  </si>
+  <si>
+    <t>Fat_digestion_and_absorption</t>
+  </si>
+  <si>
+    <t>Aminoacyl-tRNA_biosynthesis</t>
+  </si>
+  <si>
+    <t>Osteoclast_differentiation</t>
+  </si>
+  <si>
+    <t>Fluoropyrimidine_Activity</t>
+  </si>
+  <si>
+    <t>Heme_Biosynthesis</t>
+  </si>
+  <si>
+    <t>Signaling_by_Notch</t>
+  </si>
+  <si>
+    <t>Ubiquinone_and_other_terpenoid-quinone_biosynthesis</t>
+  </si>
+  <si>
+    <t>Sulfur_metabolism</t>
+  </si>
+  <si>
+    <t>Caffeine_metabolism</t>
+  </si>
+  <si>
+    <t>Phototransduction</t>
+  </si>
+  <si>
+    <t>Type_II_diabetes_mellitus</t>
+  </si>
+  <si>
+    <t>Signaling_by_EGFR</t>
+  </si>
+  <si>
+    <t>Glucocorticoid_&amp;amp;_Mineralcorticoid_Metabolism</t>
+  </si>
+  <si>
+    <t>Blood_Clotting_Cascade</t>
+  </si>
+  <si>
+    <t>Terpenoid_backbone_biosynthesis</t>
+  </si>
+  <si>
+    <t>Signaling_by_GPCR</t>
+  </si>
+  <si>
+    <t>Parkinsons_disease</t>
+  </si>
+  <si>
+    <t>Alzheimers_disease</t>
+  </si>
+  <si>
+    <t>{BRCA1_28}</t>
+  </si>
+  <si>
+    <t>{CD4_14}</t>
+  </si>
+  <si>
+    <t>{FCGR2B_50}</t>
+  </si>
+  <si>
+    <t>{RB1_11}</t>
+  </si>
+  <si>
+    <t>{VCP_17}</t>
+  </si>
+  <si>
+    <t>{SP1_88}</t>
+  </si>
+  <si>
+    <t>{PPP2CA_20}</t>
+  </si>
+  <si>
+    <t>{ABL1_15}</t>
+  </si>
+  <si>
+    <t>{SEPT2_21}</t>
+  </si>
+  <si>
+    <t>IL7_down_reg._targets</t>
+  </si>
+  <si>
+    <t>IL2_down_reg._targets</t>
   </si>
 </sst>
 </file>
@@ -1193,8 +1320,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="205">
+  <cellStyleXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1453,18 +1592,6 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1499,8 +1626,20 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="205">
+  <cellStyles count="217">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1603,6 +1742,12 @@
     <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1705,6 +1850,12 @@
     <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2037,7 +2188,7 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2049,14 +2200,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="29" thickBot="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="34"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" ht="21" thickBot="1">
       <c r="A2" s="8" t="s">
@@ -2740,23 +2891,23 @@
   <sheetData>
     <row r="1" spans="1:10" ht="16">
       <c r="A1" s="23"/>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
       <c r="H1" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="J1" s="35"/>
+      <c r="J1" s="54"/>
     </row>
     <row r="2" spans="1:10" ht="16">
       <c r="A2" s="25" t="s">
@@ -3589,7 +3740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView showRuler="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -3608,23 +3759,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
       <c r="J1" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="L1" s="32"/>
+      <c r="L1" s="55"/>
     </row>
     <row r="2" spans="1:12" ht="20">
       <c r="A2" s="7" t="s">
@@ -4361,697 +4512,6 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
-  <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="57.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" customWidth="1"/>
-    <col min="6" max="6" width="40.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="30">
-      <c r="A1" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2">
-        <v>-0.3157895</v>
-      </c>
-      <c r="C2">
-        <v>-0.76470590000000005</v>
-      </c>
-      <c r="D2">
-        <v>0.44891639999999999</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3">
-        <v>-0.1052632</v>
-      </c>
-      <c r="C3">
-        <v>-0.52941179999999999</v>
-      </c>
-      <c r="D3">
-        <v>0.42414859999999999</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4">
-        <v>-0.2105263</v>
-      </c>
-      <c r="C4">
-        <v>-0.52941179999999999</v>
-      </c>
-      <c r="D4">
-        <v>0.31888539999999999</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>-0.3421053</v>
-      </c>
-      <c r="C5">
-        <v>-0.64705880000000005</v>
-      </c>
-      <c r="D5">
-        <v>0.30495359999999999</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>-0.2631579</v>
-      </c>
-      <c r="C6">
-        <v>-0.52941179999999999</v>
-      </c>
-      <c r="D6">
-        <v>0.26625389999999999</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7">
-        <v>-0.2105263</v>
-      </c>
-      <c r="C7">
-        <v>-0.47058820000000001</v>
-      </c>
-      <c r="D7">
-        <v>0.26006190000000001</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8">
-        <v>-0.2105263</v>
-      </c>
-      <c r="C8">
-        <v>-0.47058820000000001</v>
-      </c>
-      <c r="D8">
-        <v>0.26006190000000001</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>0.5526316</v>
-      </c>
-      <c r="C9">
-        <v>0.29411759999999998</v>
-      </c>
-      <c r="D9">
-        <v>0.25851390000000002</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>-0.3947368</v>
-      </c>
-      <c r="C10">
-        <v>-0.64705880000000005</v>
-      </c>
-      <c r="D10">
-        <v>0.25232199999999999</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>-0.3421053</v>
-      </c>
-      <c r="C11">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="D11">
-        <v>0.24612999999999999</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
-        <v>0.5263158</v>
-      </c>
-      <c r="C12">
-        <v>0.29411759999999998</v>
-      </c>
-      <c r="D12">
-        <v>0.23219809999999999</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B13">
-        <v>-0.2631579</v>
-      </c>
-      <c r="C13">
-        <v>-0.47058820000000001</v>
-      </c>
-      <c r="D13">
-        <v>0.20743030000000001</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>-0.3421053</v>
-      </c>
-      <c r="C14">
-        <v>-0.52941179999999999</v>
-      </c>
-      <c r="D14">
-        <v>0.18730649999999999</v>
-      </c>
-      <c r="F14" s="39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="53" customFormat="1" hidden="1">
-      <c r="A15" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="B15" s="53">
-        <v>-0.2368421</v>
-      </c>
-      <c r="C15" s="53">
-        <v>-0.41176469999999998</v>
-      </c>
-      <c r="D15" s="53">
-        <v>0.17492260000000001</v>
-      </c>
-      <c r="F15" s="54" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16">
-        <v>0.5263158</v>
-      </c>
-      <c r="C16">
-        <v>0.35294120000000001</v>
-      </c>
-      <c r="D16">
-        <v>0.17337459999999999</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>-0.3947368</v>
-      </c>
-      <c r="C17">
-        <v>-0.52941179999999999</v>
-      </c>
-      <c r="D17">
-        <v>0.13467489999999999</v>
-      </c>
-      <c r="F17" s="39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>-0.3947368</v>
-      </c>
-      <c r="C18">
-        <v>-0.52941179999999999</v>
-      </c>
-      <c r="D18">
-        <v>0.13467489999999999</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B19">
-        <v>-0.3421053</v>
-      </c>
-      <c r="C19">
-        <v>-0.47058820000000001</v>
-      </c>
-      <c r="D19">
-        <v>0.12848300000000001</v>
-      </c>
-      <c r="F19" s="39" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B20">
-        <v>-0.3421053</v>
-      </c>
-      <c r="C20">
-        <v>-0.47058820000000001</v>
-      </c>
-      <c r="D20">
-        <v>0.12848300000000001</v>
-      </c>
-      <c r="F20" s="39" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B21">
-        <v>-0.3421053</v>
-      </c>
-      <c r="C21">
-        <v>-0.47058820000000001</v>
-      </c>
-      <c r="D21">
-        <v>0.12848300000000001</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B22">
-        <v>-0.2894737</v>
-      </c>
-      <c r="C22">
-        <v>-0.41176469999999998</v>
-      </c>
-      <c r="D22">
-        <v>0.122291</v>
-      </c>
-      <c r="F22" s="39" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B23">
-        <v>-0.2894737</v>
-      </c>
-      <c r="C23">
-        <v>-0.41176469999999998</v>
-      </c>
-      <c r="D23">
-        <v>0.122291</v>
-      </c>
-      <c r="F23" s="39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24">
-        <v>-0.3684211</v>
-      </c>
-      <c r="C24">
-        <v>-0.47058820000000001</v>
-      </c>
-      <c r="D24">
-        <v>0.1021672</v>
-      </c>
-      <c r="F24" s="39" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B25">
-        <v>-0.5</v>
-      </c>
-      <c r="C25">
-        <v>-0.35294120000000001</v>
-      </c>
-      <c r="D25">
-        <v>-0.14705879999999999</v>
-      </c>
-      <c r="F25" s="40" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B26">
-        <v>-0.4473684</v>
-      </c>
-      <c r="C26">
-        <v>-0.29411759999999998</v>
-      </c>
-      <c r="D26">
-        <v>-0.15325079999999999</v>
-      </c>
-      <c r="F26" s="40" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="53" customFormat="1" hidden="1">
-      <c r="A27" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="B27" s="53">
-        <v>0.3157895</v>
-      </c>
-      <c r="C27" s="53">
-        <v>0.47058820000000001</v>
-      </c>
-      <c r="D27" s="53">
-        <v>-0.15479879999999999</v>
-      </c>
-      <c r="F27" s="55" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B28">
-        <v>-0.4736842</v>
-      </c>
-      <c r="C28">
-        <v>-0.29411759999999998</v>
-      </c>
-      <c r="D28">
-        <v>-0.17956659999999999</v>
-      </c>
-      <c r="F28" s="40" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29">
-        <v>0.3421053</v>
-      </c>
-      <c r="C29">
-        <v>0.52941179999999999</v>
-      </c>
-      <c r="D29">
-        <v>-0.18730649999999999</v>
-      </c>
-      <c r="F29" s="40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30">
-        <v>0.2631579</v>
-      </c>
-      <c r="C30">
-        <v>0.47058820000000001</v>
-      </c>
-      <c r="D30">
-        <v>-0.20743030000000001</v>
-      </c>
-      <c r="F30" s="40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B31">
-        <v>-0.4473684</v>
-      </c>
-      <c r="C31">
-        <v>-0.23529410000000001</v>
-      </c>
-      <c r="D31">
-        <v>-0.21207429999999999</v>
-      </c>
-      <c r="F31" s="40" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32">
-        <v>0.3684211</v>
-      </c>
-      <c r="C32">
-        <v>0.58823530000000002</v>
-      </c>
-      <c r="D32">
-        <v>-0.21981419999999999</v>
-      </c>
-      <c r="F32" s="40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B33">
-        <v>0.2368421</v>
-      </c>
-      <c r="C33">
-        <v>0.47058820000000001</v>
-      </c>
-      <c r="D33">
-        <v>-0.23374610000000001</v>
-      </c>
-      <c r="F33" s="40" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B34">
-        <v>-0.4736842</v>
-      </c>
-      <c r="C34">
-        <v>-0.23529410000000001</v>
-      </c>
-      <c r="D34">
-        <v>-0.23839009999999999</v>
-      </c>
-      <c r="F34" s="40" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35">
-        <v>0.2894737</v>
-      </c>
-      <c r="C35">
-        <v>0.52941179999999999</v>
-      </c>
-      <c r="D35">
-        <v>-0.23993809999999999</v>
-      </c>
-      <c r="F35" s="40" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36">
-        <v>0.3947368</v>
-      </c>
-      <c r="C36">
-        <v>0.64705880000000005</v>
-      </c>
-      <c r="D36">
-        <v>-0.25232199999999999</v>
-      </c>
-      <c r="F36" s="40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37">
-        <v>0.3947368</v>
-      </c>
-      <c r="C37">
-        <v>0.64705880000000005</v>
-      </c>
-      <c r="D37">
-        <v>-0.25232199999999999</v>
-      </c>
-      <c r="F37" s="40" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B38">
-        <v>-0.4210526</v>
-      </c>
-      <c r="C38">
-        <v>-0.1176471</v>
-      </c>
-      <c r="D38">
-        <v>-0.3034056</v>
-      </c>
-      <c r="F38" s="40" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39">
-        <v>0.2631579</v>
-      </c>
-      <c r="C39">
-        <v>0.58823530000000002</v>
-      </c>
-      <c r="D39">
-        <v>-0.32507740000000002</v>
-      </c>
-      <c r="F39" s="40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -5065,19 +4525,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="40" t="s">
         <v>175</v>
       </c>
     </row>
@@ -5085,7 +4545,7 @@
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="37" t="s">
         <v>123</v>
       </c>
       <c r="C2">
@@ -5099,10 +4559,10 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="37" t="s">
         <v>31</v>
       </c>
       <c r="C3">
@@ -5116,10 +4576,10 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="37" t="s">
         <v>169</v>
       </c>
       <c r="C4">
@@ -5136,7 +4596,7 @@
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="37" t="s">
         <v>171</v>
       </c>
       <c r="C5">
@@ -5153,7 +4613,7 @@
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="37" t="s">
         <v>167</v>
       </c>
       <c r="C6">
@@ -5167,10 +4627,10 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C7">
@@ -5201,10 +4661,10 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="37" t="s">
         <v>170</v>
       </c>
       <c r="C9">
@@ -5238,7 +4698,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="37" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -5255,7 +4715,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="37" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -5272,7 +4732,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="37" t="s">
         <v>158</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -5292,7 +4752,7 @@
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="37" t="s">
         <v>38</v>
       </c>
       <c r="C14">
@@ -5306,7 +4766,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="37" t="s">
         <v>159</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -5323,7 +4783,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="37" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -5374,10 +4834,10 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="39" t="s">
         <v>165</v>
       </c>
       <c r="C19">
@@ -5391,10 +4851,10 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="38" t="s">
         <v>163</v>
       </c>
       <c r="C20">
@@ -5408,10 +4868,10 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="38" t="s">
         <v>12</v>
       </c>
       <c r="C21">
@@ -5425,7 +4885,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="37" t="s">
         <v>163</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -5442,10 +4902,10 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="38" t="s">
         <v>21</v>
       </c>
       <c r="C23">
@@ -5462,7 +4922,7 @@
       <c r="A24" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="38" t="s">
         <v>159</v>
       </c>
       <c r="C24">
@@ -5476,10 +4936,10 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="38" t="s">
         <v>11</v>
       </c>
       <c r="C25">
@@ -5510,10 +4970,10 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="38" t="s">
         <v>160</v>
       </c>
       <c r="C27">
@@ -5530,7 +4990,7 @@
       <c r="A28" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="38" t="s">
         <v>22</v>
       </c>
       <c r="C28">
@@ -5544,7 +5004,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="38" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -5561,10 +5021,10 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="38" t="s">
         <v>162</v>
       </c>
       <c r="C30">
@@ -5578,10 +5038,10 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="38" t="s">
         <v>156</v>
       </c>
       <c r="C31">
@@ -5598,7 +5058,7 @@
       <c r="A32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="39" t="s">
         <v>40</v>
       </c>
       <c r="C32">
@@ -5612,10 +5072,10 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="38" t="s">
         <v>158</v>
       </c>
       <c r="C33">
@@ -5629,10 +5089,10 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="38" t="s">
         <v>18</v>
       </c>
       <c r="C34">
@@ -5646,10 +5106,10 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="38" t="s">
         <v>164</v>
       </c>
       <c r="C35">
@@ -5663,10 +5123,10 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="38" t="s">
         <v>3</v>
       </c>
       <c r="C36">
@@ -5680,10 +5140,10 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="39" t="s">
         <v>32</v>
       </c>
       <c r="C37">
@@ -5700,7 +5160,7 @@
       <c r="A38" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="38" t="s">
         <v>19</v>
       </c>
       <c r="C38">
@@ -5714,7 +5174,7 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="39" t="s">
         <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -5731,7 +5191,7 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="38" t="s">
         <v>161</v>
       </c>
       <c r="C40">
@@ -5755,7 +5215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E104"/>
   <sheetViews>
@@ -5770,30 +5230,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="40" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="50">
+      <c r="C2" s="46">
         <v>-0.2</v>
       </c>
       <c r="D2">
@@ -5804,13 +5264,13 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="46">
         <v>0.66666669999999995</v>
       </c>
       <c r="D3">
@@ -5821,13 +5281,13 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="46">
         <v>0.6</v>
       </c>
       <c r="D4">
@@ -5838,13 +5298,13 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="46">
         <v>0</v>
       </c>
       <c r="D5">
@@ -5855,13 +5315,13 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="46">
         <v>-0.13333329999999999</v>
       </c>
       <c r="D6">
@@ -5872,13 +5332,13 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="46">
         <v>-0.2</v>
       </c>
       <c r="D7">
@@ -5889,13 +5349,13 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="46">
         <v>-0.3333333</v>
       </c>
       <c r="D8">
@@ -5906,13 +5366,13 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="46">
         <v>-0.3333333</v>
       </c>
       <c r="D9">
@@ -5923,13 +5383,13 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="46">
         <v>-0.3333333</v>
       </c>
       <c r="D10">
@@ -5940,13 +5400,13 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="46">
         <v>-0.4</v>
       </c>
       <c r="D11">
@@ -5957,13 +5417,13 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12" s="46">
         <v>-0.2</v>
       </c>
       <c r="D12">
@@ -5974,13 +5434,13 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="C13" s="50">
+      <c r="C13" s="46">
         <v>-0.2</v>
       </c>
       <c r="D13">
@@ -5991,13 +5451,13 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="C14" s="50">
+      <c r="C14" s="46">
         <v>-0.26666669999999998</v>
       </c>
       <c r="D14">
@@ -6008,13 +5468,13 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15" s="46">
         <v>-0.26666669999999998</v>
       </c>
       <c r="D15">
@@ -6022,1324 +5482,2040 @@
       </c>
       <c r="E15">
         <v>0.26274510000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D16">
+        <v>-0.64705880000000005</v>
+      </c>
+      <c r="E16">
+        <v>0.2470588</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D17">
+        <v>-0.64705880000000005</v>
+      </c>
+      <c r="E17">
+        <v>0.2470588</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="C18" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D18">
+        <v>-0.64705880000000005</v>
+      </c>
+      <c r="E18">
+        <v>0.2470588</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="C19" s="46">
+        <v>0.53333330000000001</v>
+      </c>
+      <c r="D19">
+        <v>0.29411759999999998</v>
+      </c>
+      <c r="E19">
+        <v>0.2392157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="46">
+        <v>0.46666669999999999</v>
+      </c>
+      <c r="D20">
+        <v>0.23529410000000001</v>
+      </c>
+      <c r="E20">
+        <v>0.23137250000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="C21" s="46">
+        <v>-0.26666669999999998</v>
+      </c>
+      <c r="D21">
+        <v>-0.47058820000000001</v>
+      </c>
+      <c r="E21">
+        <v>0.20392160000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="C22" s="46">
+        <v>-0.26666669999999998</v>
+      </c>
+      <c r="D22">
+        <v>-0.47058820000000001</v>
+      </c>
+      <c r="E22">
+        <v>0.20392160000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="C23" s="46">
+        <v>-0.3333333</v>
+      </c>
+      <c r="D23">
+        <v>-0.52941179999999999</v>
+      </c>
+      <c r="E23">
+        <v>0.19607840000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="C24" s="46">
+        <v>-0.3333333</v>
+      </c>
+      <c r="D24">
+        <v>-0.52941179999999999</v>
+      </c>
+      <c r="E24">
+        <v>0.19607840000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="C25" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D25">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E25">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D26">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E26">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="C27" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D27">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E27">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="C28" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D28">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E28">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="C29" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D29">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E29">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="C30" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D30">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E30">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="C31" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D31">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E31">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="C32" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D32">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E32">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="C33" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D33">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E33">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D34">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E34">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="C35" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D35">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E35">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="C36" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D36">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E36">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="C37" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D37">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E37">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="C38" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D38">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E38">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>261</v>
+      </c>
+      <c r="C39" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D39">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E39">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="B40" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="C40" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D40">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E40">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="B41" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="C41" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D41">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E41">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="B42" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="C42" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D42">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E42">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="B43" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="C43" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D43">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E43">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="B44" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="C44" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D44">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E44">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="B45" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="C45" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D45">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E45">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="B46" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="C46" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D46">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E46">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="B47" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="C47" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D47">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E47">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="B48" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="C48" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D48">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E48">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="C49" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D49">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E49">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="C50" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D50">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E50">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="C51" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D51">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E51">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="C52" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D52">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E52">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="C53" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D53">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E53">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="C54" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D54">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E54">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="C55" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D55">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E55">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="C56" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D56">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E56">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="C57" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D57">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E57">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="C58" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D58">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E58">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="C59" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D59">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E59">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="C60" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D60">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E60">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="C61" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D61">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E61">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="C62" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D62">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E62">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="C63" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D63">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E63">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="C64" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D64">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E64">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D65">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E65">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="C66" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D66">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E66">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="C67" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D67">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E67">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="C68" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D68">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E68">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="C69" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D69">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E69">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="C70" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D70">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E70">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="C71" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D71">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E71">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="C72" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D72">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="E72">
+        <v>0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="C73" s="46">
+        <v>0.53333330000000001</v>
+      </c>
+      <c r="D73">
+        <v>0.35294120000000001</v>
+      </c>
+      <c r="E73">
+        <v>0.1803922</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" s="41" t="s">
+        <v>293</v>
+      </c>
+      <c r="C74" s="46">
+        <v>0.53333330000000001</v>
+      </c>
+      <c r="D74">
+        <v>0.35294120000000001</v>
+      </c>
+      <c r="E74">
+        <v>0.1803922</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="C75" s="46">
+        <v>0.53333330000000001</v>
+      </c>
+      <c r="D75">
+        <v>0.35294120000000001</v>
+      </c>
+      <c r="E75">
+        <v>0.1803922</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="C76" s="46">
+        <v>0.46666669999999999</v>
+      </c>
+      <c r="D76">
+        <v>0.29411759999999998</v>
+      </c>
+      <c r="E76">
+        <v>0.17254900000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="B77" s="41" t="s">
+        <v>295</v>
+      </c>
+      <c r="C77" s="46">
+        <v>0.46666669999999999</v>
+      </c>
+      <c r="D77">
+        <v>0.29411759999999998</v>
+      </c>
+      <c r="E77">
+        <v>0.17254900000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="C78" s="46">
+        <v>-0.3333333</v>
+      </c>
+      <c r="D78">
+        <v>-0.47058820000000001</v>
+      </c>
+      <c r="E78">
+        <v>0.13725490000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="C79" s="46">
+        <v>-0.3333333</v>
+      </c>
+      <c r="D79">
+        <v>-0.47058820000000001</v>
+      </c>
+      <c r="E79">
+        <v>0.13725490000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="C80" s="46">
+        <v>-0.3333333</v>
+      </c>
+      <c r="D80">
+        <v>-0.47058820000000001</v>
+      </c>
+      <c r="E80">
+        <v>0.13725490000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="C81" s="46">
+        <v>-0.3333333</v>
+      </c>
+      <c r="D81">
+        <v>-0.47058820000000001</v>
+      </c>
+      <c r="E81">
+        <v>0.13725490000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="C82" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D82">
+        <v>-0.52941179999999999</v>
+      </c>
+      <c r="E82">
+        <v>0.12941179999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="C83" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D83">
+        <v>-0.52941179999999999</v>
+      </c>
+      <c r="E83">
+        <v>0.12941179999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="C84" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D84">
+        <v>-0.52941179999999999</v>
+      </c>
+      <c r="E84">
+        <v>0.12941179999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="C85" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="D85">
+        <v>-0.52941179999999999</v>
+      </c>
+      <c r="E85">
+        <v>0.12941179999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="C86" s="46">
+        <v>-0.46666669999999999</v>
+      </c>
+      <c r="D86">
+        <v>-0.35294120000000001</v>
+      </c>
+      <c r="E86">
+        <v>-0.11372549999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" s="43" t="s">
+        <v>303</v>
+      </c>
+      <c r="C87" s="46">
+        <v>-0.46666669999999999</v>
+      </c>
+      <c r="D87">
+        <v>-0.35294120000000001</v>
+      </c>
+      <c r="E87">
+        <v>-0.11372549999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="C88" s="46">
+        <v>-0.46666669999999999</v>
+      </c>
+      <c r="D88">
+        <v>-0.35294120000000001</v>
+      </c>
+      <c r="E88">
+        <v>-0.11372549999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" s="43" t="s">
+        <v>305</v>
+      </c>
+      <c r="C89" s="46">
+        <v>-0.46666669999999999</v>
+      </c>
+      <c r="D89">
+        <v>-0.35294120000000001</v>
+      </c>
+      <c r="E89">
+        <v>-0.11372549999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="46">
+        <v>0.26666669999999998</v>
+      </c>
+      <c r="D90">
+        <v>0.41176469999999998</v>
+      </c>
+      <c r="E90">
+        <v>-0.145098</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" s="43" t="s">
+        <v>306</v>
+      </c>
+      <c r="C91" s="46">
+        <v>-0.46666669999999999</v>
+      </c>
+      <c r="D91">
+        <v>-0.29411759999999998</v>
+      </c>
+      <c r="E91">
+        <v>-0.17254900000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" s="43" t="s">
+        <v>307</v>
+      </c>
+      <c r="C92" s="46">
+        <v>-0.46666669999999999</v>
+      </c>
+      <c r="D92">
+        <v>-0.29411759999999998</v>
+      </c>
+      <c r="E92">
+        <v>-0.17254900000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="C93" s="46">
+        <v>-0.53333330000000001</v>
+      </c>
+      <c r="D93">
+        <v>-0.35294120000000001</v>
+      </c>
+      <c r="E93">
+        <v>-0.1803922</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="C94" s="46">
+        <v>-0.53333330000000001</v>
+      </c>
+      <c r="D94">
+        <v>-0.35294120000000001</v>
+      </c>
+      <c r="E94">
+        <v>-0.1803922</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C95" s="46">
+        <v>0.4</v>
+      </c>
+      <c r="D95">
+        <v>0.58823530000000002</v>
+      </c>
+      <c r="E95">
+        <v>-0.18823529999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C96" s="46">
+        <v>0.3333333</v>
+      </c>
+      <c r="D96">
+        <v>0.52941179999999999</v>
+      </c>
+      <c r="E96">
+        <v>-0.19607840000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="C97" s="46">
+        <v>-0.53333330000000001</v>
+      </c>
+      <c r="D97">
+        <v>-0.29411759999999998</v>
+      </c>
+      <c r="E97">
+        <v>-0.2392157</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" s="43" t="s">
+        <v>311</v>
+      </c>
+      <c r="C98" s="46">
+        <v>-0.53333330000000001</v>
+      </c>
+      <c r="D98">
+        <v>-0.29411759999999998</v>
+      </c>
+      <c r="E98">
+        <v>-0.2392157</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="C99" s="46">
+        <v>-0.53333330000000001</v>
+      </c>
+      <c r="D99">
+        <v>-0.29411759999999998</v>
+      </c>
+      <c r="E99">
+        <v>-0.2392157</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100" s="43" t="s">
+        <v>312</v>
+      </c>
+      <c r="C100" s="46">
+        <v>-0.6</v>
+      </c>
+      <c r="D100">
+        <v>-0.35294120000000001</v>
+      </c>
+      <c r="E100">
+        <v>-0.2470588</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C101" s="46">
+        <v>0.26666669999999998</v>
+      </c>
+      <c r="D101">
+        <v>0.52941179999999999</v>
+      </c>
+      <c r="E101">
+        <v>-0.26274510000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="C102" s="46">
+        <v>-0.53333330000000001</v>
+      </c>
+      <c r="D102">
+        <v>-0.23529410000000001</v>
+      </c>
+      <c r="E102">
+        <v>-0.2980392</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="46">
+        <v>0.13333329999999999</v>
+      </c>
+      <c r="D103">
+        <v>0.52941179999999999</v>
+      </c>
+      <c r="E103">
+        <v>-0.3960784</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104" s="43" t="s">
+        <v>313</v>
+      </c>
+      <c r="C104" s="46">
+        <v>-0.66666669999999995</v>
+      </c>
+      <c r="D104">
+        <v>-0.17647060000000001</v>
+      </c>
+      <c r="E104">
+        <v>-0.49019610000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="60.33203125" customWidth="1"/>
+    <col min="2" max="2" width="55.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.3</v>
+      </c>
+      <c r="E2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3">
+        <v>0.66666669999999995</v>
+      </c>
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+      <c r="E3">
+        <v>0.46666669999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4">
+        <v>0.83333330000000005</v>
+      </c>
+      <c r="D4">
+        <v>0.4</v>
+      </c>
+      <c r="E4">
+        <v>0.43333329999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>0.1</v>
+      </c>
+      <c r="E5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6">
+        <v>0.66666669999999995</v>
+      </c>
+      <c r="D6">
+        <v>0.3</v>
+      </c>
+      <c r="E6">
+        <v>0.36666670000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7">
+        <v>0.66666669999999995</v>
+      </c>
+      <c r="D7">
+        <v>0.3</v>
+      </c>
+      <c r="E7">
+        <v>0.36666670000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8">
+        <v>0.66666669999999995</v>
+      </c>
+      <c r="D8">
+        <v>0.3</v>
+      </c>
+      <c r="E8">
+        <v>0.36666670000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9">
+        <v>-0.1666667</v>
+      </c>
+      <c r="D9">
+        <v>-0.5</v>
+      </c>
+      <c r="E9">
+        <v>0.3333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10">
+        <v>-0.1666667</v>
+      </c>
+      <c r="D10">
+        <v>-0.5</v>
+      </c>
+      <c r="E10">
+        <v>0.3333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+      <c r="D11">
+        <v>0.2</v>
+      </c>
+      <c r="E11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+      <c r="D12">
+        <v>0.2</v>
+      </c>
+      <c r="E12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+      <c r="D13">
+        <v>0.2</v>
+      </c>
+      <c r="E13">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14">
+        <v>0.5</v>
+      </c>
+      <c r="D14">
+        <v>0.2</v>
+      </c>
+      <c r="E14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15">
+        <v>-0.3333333</v>
+      </c>
+      <c r="D15">
+        <v>-0.6</v>
+      </c>
+      <c r="E15">
+        <v>0.26666669999999998</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>242</v>
-      </c>
-      <c r="C16" s="50">
-        <v>-0.4</v>
+      <c r="B16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16">
+        <v>-0.3333333</v>
       </c>
       <c r="D16">
-        <v>-0.64705880000000005</v>
+        <v>-0.6</v>
       </c>
       <c r="E16">
-        <v>0.2470588</v>
+        <v>0.26666669999999998</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="45" t="s">
-        <v>243</v>
-      </c>
-      <c r="C17" s="50">
-        <v>-0.4</v>
+      <c r="B17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17">
+        <v>-0.3333333</v>
       </c>
       <c r="D17">
-        <v>-0.64705880000000005</v>
+        <v>-0.6</v>
       </c>
       <c r="E17">
-        <v>0.2470588</v>
+        <v>0.26666669999999998</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="C18" s="50">
-        <v>-0.4</v>
+      <c r="B18" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18">
+        <v>0.66666669999999995</v>
       </c>
       <c r="D18">
-        <v>-0.64705880000000005</v>
+        <v>0.4</v>
       </c>
       <c r="E18">
-        <v>0.2470588</v>
+        <v>0.26666669999999998</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="B19" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="C19" s="50">
-        <v>0.53333330000000001</v>
+      <c r="B19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19">
+        <v>0.66666669999999995</v>
       </c>
       <c r="D19">
-        <v>0.29411759999999998</v>
+        <v>0.4</v>
       </c>
       <c r="E19">
-        <v>0.2392157</v>
+        <v>0.26666669999999998</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20">
+        <v>0.5</v>
+      </c>
+      <c r="D20">
+        <v>0.3</v>
+      </c>
+      <c r="E20">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21">
+        <v>0.5</v>
+      </c>
+      <c r="D21">
+        <v>0.3</v>
+      </c>
+      <c r="E21">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22">
+        <v>0.5</v>
+      </c>
+      <c r="D22">
+        <v>0.3</v>
+      </c>
+      <c r="E22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C23">
+        <v>0.5</v>
+      </c>
+      <c r="D23">
+        <v>0.3</v>
+      </c>
+      <c r="E23">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C24">
+        <v>0.5</v>
+      </c>
+      <c r="D24">
+        <v>0.3</v>
+      </c>
+      <c r="E24">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C25">
+        <v>-0.3333333</v>
+      </c>
+      <c r="D25">
+        <v>-0.5</v>
+      </c>
+      <c r="E25">
+        <v>0.1666667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C26">
+        <v>-0.3333333</v>
+      </c>
+      <c r="D26">
+        <v>-0.5</v>
+      </c>
+      <c r="E26">
+        <v>0.1666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27">
+        <v>-0.3333333</v>
+      </c>
+      <c r="D27">
+        <v>-0.5</v>
+      </c>
+      <c r="E27">
+        <v>0.1666667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>0.3333333</v>
+      </c>
+      <c r="D28">
+        <v>0.5</v>
+      </c>
+      <c r="E28">
+        <v>-0.1666667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C29">
+        <v>0.3333333</v>
+      </c>
+      <c r="D29">
+        <v>0.5</v>
+      </c>
+      <c r="E29">
+        <v>-0.1666667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30">
+        <v>-0.5</v>
+      </c>
+      <c r="D30">
+        <v>-0.3</v>
+      </c>
+      <c r="E30">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31">
+        <v>-0.5</v>
+      </c>
+      <c r="D31">
+        <v>-0.3</v>
+      </c>
+      <c r="E31">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C32">
+        <v>-0.5</v>
+      </c>
+      <c r="D32">
+        <v>-0.3</v>
+      </c>
+      <c r="E32">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C33">
+        <v>-0.5</v>
+      </c>
+      <c r="D33">
+        <v>-0.3</v>
+      </c>
+      <c r="E33">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>-0.66666669999999995</v>
+      </c>
+      <c r="D34">
+        <v>-0.4</v>
+      </c>
+      <c r="E34">
+        <v>-0.26666669999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="50">
-        <v>0.46666669999999999</v>
-      </c>
-      <c r="D20">
-        <v>0.23529410000000001</v>
-      </c>
-      <c r="E20">
-        <v>0.23137250000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="C21" s="50">
-        <v>-0.26666669999999998</v>
-      </c>
-      <c r="D21">
-        <v>-0.47058820000000001</v>
-      </c>
-      <c r="E21">
-        <v>0.20392160000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>247</v>
-      </c>
-      <c r="C22" s="50">
-        <v>-0.26666669999999998</v>
-      </c>
-      <c r="D22">
-        <v>-0.47058820000000001</v>
-      </c>
-      <c r="E22">
-        <v>0.20392160000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="B23" s="45" t="s">
-        <v>248</v>
-      </c>
-      <c r="C23" s="50">
+      <c r="B35" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C35">
+        <v>0.1666667</v>
+      </c>
+      <c r="D35">
+        <v>0.5</v>
+      </c>
+      <c r="E35">
         <v>-0.3333333</v>
       </c>
-      <c r="D23">
-        <v>-0.52941179999999999</v>
-      </c>
-      <c r="E23">
-        <v>0.19607840000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>249</v>
-      </c>
-      <c r="C24" s="50">
-        <v>-0.3333333</v>
-      </c>
-      <c r="D24">
-        <v>-0.52941179999999999</v>
-      </c>
-      <c r="E24">
-        <v>0.19607840000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="B25" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="C25" s="50">
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>-0.66666669999999995</v>
+      </c>
+      <c r="D36">
+        <v>-0.3</v>
+      </c>
+      <c r="E36">
+        <v>-0.36666670000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C37">
+        <v>-0.5</v>
+      </c>
+      <c r="D37">
+        <v>-0.1</v>
+      </c>
+      <c r="E37">
         <v>-0.4</v>
       </c>
-      <c r="D25">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E25">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="B26" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="50">
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C38">
+        <v>-0.5</v>
+      </c>
+      <c r="D38">
+        <v>-0.1</v>
+      </c>
+      <c r="E38">
         <v>-0.4</v>
       </c>
-      <c r="D26">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E26">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>251</v>
-      </c>
-      <c r="C27" s="50">
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39">
+        <v>-0.83333330000000005</v>
+      </c>
+      <c r="D39">
         <v>-0.4</v>
       </c>
-      <c r="D27">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E27">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="B28" s="45" t="s">
-        <v>252</v>
-      </c>
-      <c r="C28" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D28">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E28">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="45" t="s">
-        <v>253</v>
-      </c>
-      <c r="C29" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D29">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E29">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30" s="45" t="s">
-        <v>254</v>
-      </c>
-      <c r="C30" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D30">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E30">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>255</v>
-      </c>
-      <c r="C31" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D31">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E31">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="45" t="s">
-        <v>256</v>
-      </c>
-      <c r="C32" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D32">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E32">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="B33" s="45" t="s">
-        <v>257</v>
-      </c>
-      <c r="C33" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D33">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E33">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="B34" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D34">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E34">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="45" t="s">
-        <v>258</v>
-      </c>
-      <c r="C35" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D35">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E35">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="C36" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D36">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E36">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="C37" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D37">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E37">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="B38" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="C38" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D38">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E38">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="45" t="s">
-        <v>261</v>
-      </c>
-      <c r="C39" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D39">
-        <v>-0.58823530000000002</v>
-      </c>
       <c r="E39">
-        <v>0.18823529999999999</v>
+        <v>-0.43333329999999998</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="B40" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="C40" s="50">
-        <v>-0.4</v>
+      <c r="B40" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C40">
+        <v>-0.5</v>
       </c>
       <c r="D40">
-        <v>-0.58823530000000002</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>0.18823529999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="B41" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="C41" s="50">
-        <v>-0.4</v>
+      <c r="B41" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41">
+        <v>-0.83333330000000005</v>
       </c>
       <c r="D41">
-        <v>-0.58823530000000002</v>
+        <v>-0.3</v>
       </c>
       <c r="E41">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="B42" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="C42" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D42">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E42">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="B43" s="45" t="s">
-        <v>265</v>
-      </c>
-      <c r="C43" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D43">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E43">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="B44" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="C44" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D44">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E44">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="B45" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="C45" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D45">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E45">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="B46" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="C46" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D46">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E46">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="B47" s="45" t="s">
-        <v>269</v>
-      </c>
-      <c r="C47" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D47">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E47">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="B48" s="45" t="s">
-        <v>270</v>
-      </c>
-      <c r="C48" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D48">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E48">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5">
-      <c r="B49" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="C49" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D49">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E49">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5">
-      <c r="B50" s="45" t="s">
-        <v>271</v>
-      </c>
-      <c r="C50" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D50">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E50">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5">
-      <c r="B51" s="45" t="s">
-        <v>272</v>
-      </c>
-      <c r="C51" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D51">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E51">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5">
-      <c r="B52" s="46" t="s">
-        <v>273</v>
-      </c>
-      <c r="C52" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D52">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E52">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5">
-      <c r="B53" s="45" t="s">
-        <v>274</v>
-      </c>
-      <c r="C53" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D53">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E53">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5">
-      <c r="B54" s="45" t="s">
-        <v>275</v>
-      </c>
-      <c r="C54" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D54">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E54">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5">
-      <c r="B55" s="45" t="s">
-        <v>276</v>
-      </c>
-      <c r="C55" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D55">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E55">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5">
-      <c r="B56" s="45" t="s">
-        <v>277</v>
-      </c>
-      <c r="C56" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D56">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E56">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5">
-      <c r="B57" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="C57" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D57">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E57">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5">
-      <c r="B58" s="45" t="s">
-        <v>278</v>
-      </c>
-      <c r="C58" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D58">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E58">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5">
-      <c r="B59" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="C59" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D59">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E59">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5">
-      <c r="B60" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="C60" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D60">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E60">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5">
-      <c r="B61" s="45" t="s">
-        <v>281</v>
-      </c>
-      <c r="C61" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D61">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E61">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5">
-      <c r="B62" s="45" t="s">
-        <v>282</v>
-      </c>
-      <c r="C62" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D62">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E62">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5">
-      <c r="B63" s="45" t="s">
-        <v>283</v>
-      </c>
-      <c r="C63" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D63">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E63">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5">
-      <c r="B64" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="C64" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D64">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E64">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5">
-      <c r="B65" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C65" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D65">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E65">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5">
-      <c r="B66" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="C66" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D66">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E66">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5">
-      <c r="B67" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="C67" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D67">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E67">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5">
-      <c r="B68" s="45" t="s">
-        <v>287</v>
-      </c>
-      <c r="C68" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D68">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E68">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5">
-      <c r="B69" s="45" t="s">
-        <v>288</v>
-      </c>
-      <c r="C69" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D69">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E69">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5">
-      <c r="B70" s="45" t="s">
-        <v>289</v>
-      </c>
-      <c r="C70" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D70">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E70">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5">
-      <c r="B71" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="C71" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D71">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E71">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5">
-      <c r="B72" s="45" t="s">
-        <v>291</v>
-      </c>
-      <c r="C72" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D72">
-        <v>-0.58823530000000002</v>
-      </c>
-      <c r="E72">
-        <v>0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5">
-      <c r="B73" s="45" t="s">
-        <v>292</v>
-      </c>
-      <c r="C73" s="50">
-        <v>0.53333330000000001</v>
-      </c>
-      <c r="D73">
-        <v>0.35294120000000001</v>
-      </c>
-      <c r="E73">
-        <v>0.1803922</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5">
-      <c r="B74" s="45" t="s">
-        <v>293</v>
-      </c>
-      <c r="C74" s="50">
-        <v>0.53333330000000001</v>
-      </c>
-      <c r="D74">
-        <v>0.35294120000000001</v>
-      </c>
-      <c r="E74">
-        <v>0.1803922</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5">
-      <c r="B75" s="45" t="s">
-        <v>294</v>
-      </c>
-      <c r="C75" s="50">
-        <v>0.53333330000000001</v>
-      </c>
-      <c r="D75">
-        <v>0.35294120000000001</v>
-      </c>
-      <c r="E75">
-        <v>0.1803922</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5">
-      <c r="B76" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="C76" s="50">
-        <v>0.46666669999999999</v>
-      </c>
-      <c r="D76">
-        <v>0.29411759999999998</v>
-      </c>
-      <c r="E76">
-        <v>0.17254900000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5">
-      <c r="B77" s="45" t="s">
-        <v>295</v>
-      </c>
-      <c r="C77" s="50">
-        <v>0.46666669999999999</v>
-      </c>
-      <c r="D77">
-        <v>0.29411759999999998</v>
-      </c>
-      <c r="E77">
-        <v>0.17254900000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5">
-      <c r="B78" s="45" t="s">
-        <v>296</v>
-      </c>
-      <c r="C78" s="50">
-        <v>-0.3333333</v>
-      </c>
-      <c r="D78">
-        <v>-0.47058820000000001</v>
-      </c>
-      <c r="E78">
-        <v>0.13725490000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5">
-      <c r="B79" s="45" t="s">
-        <v>297</v>
-      </c>
-      <c r="C79" s="50">
-        <v>-0.3333333</v>
-      </c>
-      <c r="D79">
-        <v>-0.47058820000000001</v>
-      </c>
-      <c r="E79">
-        <v>0.13725490000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5">
-      <c r="B80" s="45" t="s">
-        <v>298</v>
-      </c>
-      <c r="C80" s="50">
-        <v>-0.3333333</v>
-      </c>
-      <c r="D80">
-        <v>-0.47058820000000001</v>
-      </c>
-      <c r="E80">
-        <v>0.13725490000000001</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5">
-      <c r="B81" s="45" t="s">
-        <v>299</v>
-      </c>
-      <c r="C81" s="50">
-        <v>-0.3333333</v>
-      </c>
-      <c r="D81">
-        <v>-0.47058820000000001</v>
-      </c>
-      <c r="E81">
-        <v>0.13725490000000001</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5">
-      <c r="B82" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="C82" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D82">
-        <v>-0.52941179999999999</v>
-      </c>
-      <c r="E82">
-        <v>0.12941179999999999</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5">
-      <c r="B83" s="45" t="s">
-        <v>300</v>
-      </c>
-      <c r="C83" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D83">
-        <v>-0.52941179999999999</v>
-      </c>
-      <c r="E83">
-        <v>0.12941179999999999</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5">
-      <c r="B84" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="C84" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D84">
-        <v>-0.52941179999999999</v>
-      </c>
-      <c r="E84">
-        <v>0.12941179999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5">
-      <c r="B85" s="45" t="s">
-        <v>301</v>
-      </c>
-      <c r="C85" s="50">
-        <v>-0.4</v>
-      </c>
-      <c r="D85">
-        <v>-0.52941179999999999</v>
-      </c>
-      <c r="E85">
-        <v>0.12941179999999999</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5">
-      <c r="B86" s="47" t="s">
-        <v>302</v>
-      </c>
-      <c r="C86" s="50">
-        <v>-0.46666669999999999</v>
-      </c>
-      <c r="D86">
-        <v>-0.35294120000000001</v>
-      </c>
-      <c r="E86">
-        <v>-0.11372549999999999</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5">
-      <c r="B87" s="47" t="s">
-        <v>303</v>
-      </c>
-      <c r="C87" s="50">
-        <v>-0.46666669999999999</v>
-      </c>
-      <c r="D87">
-        <v>-0.35294120000000001</v>
-      </c>
-      <c r="E87">
-        <v>-0.11372549999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5">
-      <c r="B88" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="C88" s="50">
-        <v>-0.46666669999999999</v>
-      </c>
-      <c r="D88">
-        <v>-0.35294120000000001</v>
-      </c>
-      <c r="E88">
-        <v>-0.11372549999999999</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5">
-      <c r="B89" s="47" t="s">
-        <v>305</v>
-      </c>
-      <c r="C89" s="50">
-        <v>-0.46666669999999999</v>
-      </c>
-      <c r="D89">
-        <v>-0.35294120000000001</v>
-      </c>
-      <c r="E89">
-        <v>-0.11372549999999999</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5">
-      <c r="B90" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C90" s="50">
-        <v>0.26666669999999998</v>
-      </c>
-      <c r="D90">
-        <v>0.41176469999999998</v>
-      </c>
-      <c r="E90">
-        <v>-0.145098</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5">
-      <c r="B91" s="47" t="s">
-        <v>306</v>
-      </c>
-      <c r="C91" s="50">
-        <v>-0.46666669999999999</v>
-      </c>
-      <c r="D91">
-        <v>-0.29411759999999998</v>
-      </c>
-      <c r="E91">
-        <v>-0.17254900000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5">
-      <c r="B92" s="47" t="s">
-        <v>307</v>
-      </c>
-      <c r="C92" s="50">
-        <v>-0.46666669999999999</v>
-      </c>
-      <c r="D92">
-        <v>-0.29411759999999998</v>
-      </c>
-      <c r="E92">
-        <v>-0.17254900000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5">
-      <c r="B93" s="47" t="s">
-        <v>308</v>
-      </c>
-      <c r="C93" s="50">
         <v>-0.53333330000000001</v>
-      </c>
-      <c r="D93">
-        <v>-0.35294120000000001</v>
-      </c>
-      <c r="E93">
-        <v>-0.1803922</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5">
-      <c r="B94" s="47" t="s">
-        <v>309</v>
-      </c>
-      <c r="C94" s="50">
-        <v>-0.53333330000000001</v>
-      </c>
-      <c r="D94">
-        <v>-0.35294120000000001</v>
-      </c>
-      <c r="E94">
-        <v>-0.1803922</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5">
-      <c r="B95" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C95" s="50">
-        <v>0.4</v>
-      </c>
-      <c r="D95">
-        <v>0.58823530000000002</v>
-      </c>
-      <c r="E95">
-        <v>-0.18823529999999999</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5">
-      <c r="B96" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="C96" s="50">
-        <v>0.3333333</v>
-      </c>
-      <c r="D96">
-        <v>0.52941179999999999</v>
-      </c>
-      <c r="E96">
-        <v>-0.19607840000000001</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5">
-      <c r="B97" s="47" t="s">
-        <v>310</v>
-      </c>
-      <c r="C97" s="50">
-        <v>-0.53333330000000001</v>
-      </c>
-      <c r="D97">
-        <v>-0.29411759999999998</v>
-      </c>
-      <c r="E97">
-        <v>-0.2392157</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5">
-      <c r="B98" s="47" t="s">
-        <v>311</v>
-      </c>
-      <c r="C98" s="50">
-        <v>-0.53333330000000001</v>
-      </c>
-      <c r="D98">
-        <v>-0.29411759999999998</v>
-      </c>
-      <c r="E98">
-        <v>-0.2392157</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5">
-      <c r="B99" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="C99" s="50">
-        <v>-0.53333330000000001</v>
-      </c>
-      <c r="D99">
-        <v>-0.29411759999999998</v>
-      </c>
-      <c r="E99">
-        <v>-0.2392157</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5">
-      <c r="B100" s="47" t="s">
-        <v>312</v>
-      </c>
-      <c r="C100" s="50">
-        <v>-0.6</v>
-      </c>
-      <c r="D100">
-        <v>-0.35294120000000001</v>
-      </c>
-      <c r="E100">
-        <v>-0.2470588</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5">
-      <c r="B101" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="C101" s="50">
-        <v>0.26666669999999998</v>
-      </c>
-      <c r="D101">
-        <v>0.52941179999999999</v>
-      </c>
-      <c r="E101">
-        <v>-0.26274510000000001</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5">
-      <c r="B102" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="C102" s="50">
-        <v>-0.53333330000000001</v>
-      </c>
-      <c r="D102">
-        <v>-0.23529410000000001</v>
-      </c>
-      <c r="E102">
-        <v>-0.2980392</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5">
-      <c r="B103" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" s="50">
-        <v>0.13333329999999999</v>
-      </c>
-      <c r="D103">
-        <v>0.52941179999999999</v>
-      </c>
-      <c r="E103">
-        <v>-0.3960784</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5">
-      <c r="B104" s="47" t="s">
-        <v>313</v>
-      </c>
-      <c r="C104" s="50">
-        <v>-0.66666669999999995</v>
-      </c>
-      <c r="D104">
-        <v>-0.17647060000000001</v>
-      </c>
-      <c r="E104">
-        <v>-0.49019610000000002</v>
       </c>
     </row>
   </sheetData>
@@ -7355,707 +7531,1002 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="60.33203125" customWidth="1"/>
-    <col min="2" max="2" width="55.1640625" customWidth="1"/>
+    <col min="1" max="1" width="57.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="4.83203125" customWidth="1"/>
+    <col min="6" max="6" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="E1" s="36" t="s">
+    <row r="1" spans="1:6" ht="30">
+      <c r="A1" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="34" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="45" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="34" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>114</v>
+      <c r="B2">
+        <v>-0.3157895</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>-0.76470590000000005</v>
       </c>
       <c r="D2">
-        <v>0.3</v>
-      </c>
-      <c r="E2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="45" t="s">
+        <v>0.44891639999999999</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>116</v>
+      <c r="B3">
+        <v>-0.1052632</v>
       </c>
       <c r="C3">
-        <v>0.66666669999999995</v>
+        <v>-0.52941179999999999</v>
       </c>
       <c r="D3">
-        <v>0.2</v>
-      </c>
-      <c r="E3">
-        <v>0.46666669999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="45" t="s">
+        <v>0.42414859999999999</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="41" t="s">
-        <v>125</v>
+      <c r="B4">
+        <v>-0.2105263</v>
       </c>
       <c r="C4">
-        <v>0.83333330000000005</v>
+        <v>-0.52941179999999999</v>
       </c>
       <c r="D4">
-        <v>0.4</v>
-      </c>
-      <c r="E4">
-        <v>0.43333329999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="45" t="s">
+        <v>0.31888539999999999</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>205</v>
+      <c r="B5">
+        <v>-0.3421053</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>-0.64705880000000005</v>
       </c>
       <c r="D5">
-        <v>0.1</v>
-      </c>
-      <c r="E5">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="46" t="s">
+        <v>0.30495359999999999</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>115</v>
+      <c r="B6">
+        <v>-0.2631579</v>
       </c>
       <c r="C6">
-        <v>0.66666669999999995</v>
+        <v>-0.52941179999999999</v>
       </c>
       <c r="D6">
-        <v>0.3</v>
-      </c>
-      <c r="E6">
-        <v>0.36666670000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="45" t="s">
+        <v>0.26625389999999999</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>129</v>
+      <c r="B7">
+        <v>-0.2105263</v>
       </c>
       <c r="C7">
-        <v>0.66666669999999995</v>
+        <v>-0.47058820000000001</v>
       </c>
       <c r="D7">
-        <v>0.3</v>
-      </c>
-      <c r="E7">
-        <v>0.36666670000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="45" t="s">
+        <v>0.26006190000000001</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>120</v>
+      <c r="B8">
+        <v>-0.2105263</v>
       </c>
       <c r="C8">
-        <v>0.66666669999999995</v>
+        <v>-0.47058820000000001</v>
       </c>
       <c r="D8">
-        <v>0.3</v>
-      </c>
-      <c r="E8">
-        <v>0.36666670000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="45" t="s">
+        <v>0.26006190000000001</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>206</v>
+      <c r="B9">
+        <v>0.5526316</v>
       </c>
       <c r="C9">
-        <v>-0.1666667</v>
+        <v>0.29411759999999998</v>
       </c>
       <c r="D9">
+        <v>0.25851390000000002</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>-0.3947368</v>
+      </c>
+      <c r="C10">
+        <v>-0.64705880000000005</v>
+      </c>
+      <c r="D10">
+        <v>0.25232199999999999</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>-0.3421053</v>
+      </c>
+      <c r="C11">
+        <v>-0.58823530000000002</v>
+      </c>
+      <c r="D11">
+        <v>0.24612999999999999</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>0.5263158</v>
+      </c>
+      <c r="C12">
+        <v>0.29411759999999998</v>
+      </c>
+      <c r="D12">
+        <v>0.23219809999999999</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13">
+        <v>-0.2631579</v>
+      </c>
+      <c r="C13">
+        <v>-0.47058820000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.20743030000000001</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>-0.3421053</v>
+      </c>
+      <c r="C14">
+        <v>-0.52941179999999999</v>
+      </c>
+      <c r="D14">
+        <v>0.18730649999999999</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="49" customFormat="1" hidden="1">
+      <c r="A15" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="49">
+        <v>-0.2368421</v>
+      </c>
+      <c r="C15" s="49">
+        <v>-0.41176469999999998</v>
+      </c>
+      <c r="D15" s="49">
+        <v>0.17492260000000001</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>0.5263158</v>
+      </c>
+      <c r="C16">
+        <v>0.35294120000000001</v>
+      </c>
+      <c r="D16">
+        <v>0.17337459999999999</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>-0.3947368</v>
+      </c>
+      <c r="C17">
+        <v>-0.52941179999999999</v>
+      </c>
+      <c r="D17">
+        <v>0.13467489999999999</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>-0.3947368</v>
+      </c>
+      <c r="C18">
+        <v>-0.52941179999999999</v>
+      </c>
+      <c r="D18">
+        <v>0.13467489999999999</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19">
+        <v>-0.3421053</v>
+      </c>
+      <c r="C19">
+        <v>-0.47058820000000001</v>
+      </c>
+      <c r="D19">
+        <v>0.12848300000000001</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20">
+        <v>-0.3421053</v>
+      </c>
+      <c r="C20">
+        <v>-0.47058820000000001</v>
+      </c>
+      <c r="D20">
+        <v>0.12848300000000001</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21">
+        <v>-0.3421053</v>
+      </c>
+      <c r="C21">
+        <v>-0.47058820000000001</v>
+      </c>
+      <c r="D21">
+        <v>0.12848300000000001</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22">
+        <v>-0.2894737</v>
+      </c>
+      <c r="C22">
+        <v>-0.41176469999999998</v>
+      </c>
+      <c r="D22">
+        <v>0.122291</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23">
+        <v>-0.2894737</v>
+      </c>
+      <c r="C23">
+        <v>-0.41176469999999998</v>
+      </c>
+      <c r="D23">
+        <v>0.122291</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24">
+        <v>-0.3684211</v>
+      </c>
+      <c r="C24">
+        <v>-0.47058820000000001</v>
+      </c>
+      <c r="D24">
+        <v>0.1021672</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25">
         <v>-0.5</v>
       </c>
-      <c r="E9">
-        <v>0.3333333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C10">
-        <v>-0.1666667</v>
-      </c>
-      <c r="D10">
-        <v>-0.5</v>
-      </c>
-      <c r="E10">
-        <v>0.3333333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="C11">
-        <v>0.5</v>
-      </c>
-      <c r="D11">
-        <v>0.2</v>
-      </c>
-      <c r="E11">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C12">
-        <v>0.5</v>
-      </c>
-      <c r="D12">
-        <v>0.2</v>
-      </c>
-      <c r="E12">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C13">
-        <v>0.5</v>
-      </c>
-      <c r="D13">
-        <v>0.2</v>
-      </c>
-      <c r="E13">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="C25">
+        <v>-0.35294120000000001</v>
+      </c>
+      <c r="D25">
+        <v>-0.14705879999999999</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26">
+        <v>-0.4473684</v>
+      </c>
+      <c r="C26">
+        <v>-0.29411759999999998</v>
+      </c>
+      <c r="D26">
+        <v>-0.15325079999999999</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="49" customFormat="1" hidden="1">
+      <c r="A27" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="49">
+        <v>0.3157895</v>
+      </c>
+      <c r="C27" s="49">
+        <v>0.47058820000000001</v>
+      </c>
+      <c r="D27" s="49">
+        <v>-0.15479879999999999</v>
+      </c>
+      <c r="F27" s="51" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28">
+        <v>-0.4736842</v>
+      </c>
+      <c r="C28">
+        <v>-0.29411759999999998</v>
+      </c>
+      <c r="D28">
+        <v>-0.17956659999999999</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29">
+        <v>0.3421053</v>
+      </c>
+      <c r="C29">
+        <v>0.52941179999999999</v>
+      </c>
+      <c r="D29">
+        <v>-0.18730649999999999</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30">
+        <v>0.2631579</v>
+      </c>
+      <c r="C30">
+        <v>0.47058820000000001</v>
+      </c>
+      <c r="D30">
+        <v>-0.20743030000000001</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31">
+        <v>-0.4473684</v>
+      </c>
+      <c r="C31">
+        <v>-0.23529410000000001</v>
+      </c>
+      <c r="D31">
+        <v>-0.21207429999999999</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>0.3684211</v>
+      </c>
+      <c r="C32">
+        <v>0.58823530000000002</v>
+      </c>
+      <c r="D32">
+        <v>-0.21981419999999999</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B33">
+        <v>0.2368421</v>
+      </c>
+      <c r="C33">
+        <v>0.47058820000000001</v>
+      </c>
+      <c r="D33">
+        <v>-0.23374610000000001</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B34">
+        <v>-0.4736842</v>
+      </c>
+      <c r="C34">
+        <v>-0.23529410000000001</v>
+      </c>
+      <c r="D34">
+        <v>-0.23839009999999999</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>0.2894737</v>
+      </c>
+      <c r="C35">
+        <v>0.52941179999999999</v>
+      </c>
+      <c r="D35">
+        <v>-0.23993809999999999</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36">
+        <v>0.3947368</v>
+      </c>
+      <c r="C36">
+        <v>0.64705880000000005</v>
+      </c>
+      <c r="D36">
+        <v>-0.25232199999999999</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37">
+        <v>0.3947368</v>
+      </c>
+      <c r="C37">
+        <v>0.64705880000000005</v>
+      </c>
+      <c r="D37">
+        <v>-0.25232199999999999</v>
+      </c>
+      <c r="F37" s="36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B38">
+        <v>-0.4210526</v>
+      </c>
+      <c r="C38">
+        <v>-0.1176471</v>
+      </c>
+      <c r="D38">
+        <v>-0.3034056</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>0.2631579</v>
+      </c>
+      <c r="C39">
+        <v>0.58823530000000002</v>
+      </c>
+      <c r="D39">
+        <v>-0.32507740000000002</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView showRuler="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="73" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B12" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" hidden="1">
       <c r="A14" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C14">
-        <v>0.5</v>
-      </c>
-      <c r="D14">
-        <v>0.2</v>
-      </c>
-      <c r="E14">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15">
-        <v>-0.3333333</v>
-      </c>
-      <c r="D15">
-        <v>-0.6</v>
-      </c>
-      <c r="E15">
-        <v>0.26666669999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16">
-        <v>-0.3333333</v>
-      </c>
-      <c r="D16">
-        <v>-0.6</v>
-      </c>
-      <c r="E16">
-        <v>0.26666669999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17">
-        <v>-0.3333333</v>
-      </c>
-      <c r="D17">
-        <v>-0.6</v>
-      </c>
-      <c r="E17">
-        <v>0.26666669999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18">
-        <v>0.66666669999999995</v>
-      </c>
-      <c r="D18">
-        <v>0.4</v>
-      </c>
-      <c r="E18">
-        <v>0.26666669999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19">
-        <v>0.66666669999999995</v>
-      </c>
-      <c r="D19">
-        <v>0.4</v>
-      </c>
-      <c r="E19">
-        <v>0.26666669999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C20">
-        <v>0.5</v>
-      </c>
-      <c r="D20">
-        <v>0.3</v>
-      </c>
-      <c r="E20">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C21">
-        <v>0.5</v>
-      </c>
-      <c r="D21">
-        <v>0.3</v>
-      </c>
-      <c r="E21">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C22">
-        <v>0.5</v>
-      </c>
-      <c r="D22">
-        <v>0.3</v>
-      </c>
-      <c r="E22">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C23">
-        <v>0.5</v>
-      </c>
-      <c r="D23">
-        <v>0.3</v>
-      </c>
-      <c r="E23">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C24">
-        <v>0.5</v>
-      </c>
-      <c r="D24">
-        <v>0.3</v>
-      </c>
-      <c r="E24">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C25">
-        <v>-0.3333333</v>
-      </c>
-      <c r="D25">
-        <v>-0.5</v>
-      </c>
-      <c r="E25">
-        <v>0.1666667</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C26">
-        <v>-0.3333333</v>
-      </c>
-      <c r="D26">
-        <v>-0.5</v>
-      </c>
-      <c r="E26">
-        <v>0.1666667</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C27">
-        <v>-0.3333333</v>
-      </c>
-      <c r="D27">
-        <v>-0.5</v>
-      </c>
-      <c r="E27">
-        <v>0.1666667</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28">
-        <v>0.3333333</v>
-      </c>
-      <c r="D28">
-        <v>0.5</v>
-      </c>
-      <c r="E28">
-        <v>-0.1666667</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C29">
-        <v>0.3333333</v>
-      </c>
-      <c r="D29">
-        <v>0.5</v>
-      </c>
-      <c r="E29">
-        <v>-0.1666667</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="C30">
-        <v>-0.5</v>
-      </c>
-      <c r="D30">
-        <v>-0.3</v>
-      </c>
-      <c r="E30">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C31">
-        <v>-0.5</v>
-      </c>
-      <c r="D31">
-        <v>-0.3</v>
-      </c>
-      <c r="E31">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C32">
-        <v>-0.5</v>
-      </c>
-      <c r="D32">
-        <v>-0.3</v>
-      </c>
-      <c r="E32">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C33">
-        <v>-0.5</v>
-      </c>
-      <c r="D33">
-        <v>-0.3</v>
-      </c>
-      <c r="E33">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34">
-        <v>-0.66666669999999995</v>
-      </c>
-      <c r="D34">
-        <v>-0.4</v>
-      </c>
-      <c r="E34">
-        <v>-0.26666669999999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C35">
-        <v>0.1666667</v>
-      </c>
-      <c r="D35">
-        <v>0.5</v>
-      </c>
-      <c r="E35">
-        <v>-0.3333333</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>-0.66666669999999995</v>
-      </c>
-      <c r="D36">
-        <v>-0.3</v>
-      </c>
-      <c r="E36">
-        <v>-0.36666670000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37">
-        <v>-0.5</v>
-      </c>
-      <c r="D37">
-        <v>-0.1</v>
-      </c>
-      <c r="E37">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C38">
-        <v>-0.5</v>
-      </c>
-      <c r="D38">
-        <v>-0.1</v>
-      </c>
-      <c r="E38">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39">
-        <v>-0.83333330000000005</v>
-      </c>
-      <c r="D39">
-        <v>-0.4</v>
-      </c>
-      <c r="E39">
-        <v>-0.43333329999999998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="B40" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C40">
-        <v>-0.5</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="B41" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41">
-        <v>-0.83333330000000005</v>
-      </c>
-      <c r="D41">
-        <v>-0.3</v>
-      </c>
-      <c r="E41">
-        <v>-0.53333330000000001</v>
+        <v>327</v>
+      </c>
+      <c r="B14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B17" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B18" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B19" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B20" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B21" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B22" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B23" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B24" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B25" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B26" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B27" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B28" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B29" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B30" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B31" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B32" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B33" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B34" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B35" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B36" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B37" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
